--- a/data/case1/11/Qlm1_3.xlsx
+++ b/data/case1/11/Qlm1_3.xlsx
@@ -57,263 +57,263 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="16.42578125" customWidth="true"/>
-    <col min="2" max="2" width="16.42578125" customWidth="true"/>
+    <col min="2" max="2" width="15.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>-0.24282136530157317</v>
+        <v>-0.22018249879080543</v>
       </c>
       <c r="B1" s="0">
-        <v>0.24199572391220414</v>
+        <v>0.21958288703395112</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.22752695537808609</v>
+        <v>-0.14852849596766227</v>
       </c>
       <c r="B2" s="0">
-        <v>0.22498740857470345</v>
+        <v>0.14684735605327592</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.14154629327704349</v>
+        <v>-0.11827330717625451</v>
       </c>
       <c r="B3" s="0">
-        <v>0.1408551194019978</v>
+        <v>0.11780281601642706</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.13285511955132812</v>
+        <v>-0.10980281607207942</v>
       </c>
       <c r="B4" s="0">
-        <v>0.13221978542732593</v>
+        <v>0.10938180461776881</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.12921978552400137</v>
+        <v>-0.10638180464924929</v>
       </c>
       <c r="B5" s="0">
-        <v>0.12703355971309538</v>
+        <v>0.10495436754385334</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.027717622254831653</v>
+        <v>-0.020741866330732606</v>
       </c>
       <c r="B6" s="0">
-        <v>0.027481057758729222</v>
+        <v>0.020605645912500137</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.017481057978587788</v>
+        <v>-0.010605645990318546</v>
       </c>
       <c r="B7" s="0">
-        <v>0.017437241619816746</v>
+        <v>0.010586530089320867</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.0074372418427648412</v>
+        <v>-0.00058653016757315157</v>
       </c>
       <c r="B8" s="0">
-        <v>0.0073906434488741901</v>
+        <v>0.0005778249279182468</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.0053906435693438226</v>
+        <v>-0.024174493046965839</v>
       </c>
       <c r="B9" s="0">
-        <v>0.0053615958670012454</v>
+        <v>0.024030334446965895</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.0033615959888528835</v>
+        <v>-0.022030334482170844</v>
       </c>
       <c r="B10" s="0">
-        <v>0.0033623229088188822</v>
+        <v>0.022022066080966241</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.0003623230437392877</v>
+        <v>-0.019022066121957337</v>
       </c>
       <c r="B11" s="0">
-        <v>0.00036238726461323978</v>
+        <v>0.019008009173873575</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.0031168587663996661</v>
+        <v>-0.015508009218133889</v>
       </c>
       <c r="B12" s="0">
-        <v>0.0030958556925622105</v>
+        <v>0.015412164683787477</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.00040414416488854243</v>
+        <v>-0.011912164729607433</v>
       </c>
       <c r="B13" s="0">
-        <v>-0.00040799986574047153</v>
+        <v>0.011874723960577427</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.0084079996645618493</v>
+        <v>-0.0038747240315100129</v>
       </c>
       <c r="B14" s="0">
-        <v>-0.0084094555893203804</v>
+        <v>0.0038685762850025895</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.0094094554805463915</v>
+        <v>-0.0028685763172413559</v>
       </c>
       <c r="B15" s="0">
-        <v>-0.0094144196636092303</v>
+        <v>0.002866826651882981</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.011414419543394061</v>
+        <v>-0.0060350607524064515</v>
       </c>
       <c r="B16" s="0">
-        <v>-0.01145428177140273</v>
+        <v>0.0060034916562980989</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.004002939260989713</v>
+        <v>-0.0040034916945028698</v>
       </c>
       <c r="B17" s="0">
-        <v>0.0039999998570854345</v>
+        <v>0.0039999999505528905</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.044973140566220593</v>
+        <v>-0.065054391100936471</v>
       </c>
       <c r="B18" s="0">
-        <v>0.044908079015780089</v>
+        <v>0.064927334806267112</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.040908079074108983</v>
+        <v>-0.06092733483071866</v>
       </c>
       <c r="B19" s="0">
-        <v>0.040419110214881204</v>
+        <v>0.059983598221077461</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.0080156326854172733</v>
+        <v>-0.0080170041261240499</v>
       </c>
       <c r="B20" s="0">
-        <v>0.0080055303614567919</v>
+        <v>0.0080057617157205385</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.004005530435060578</v>
+        <v>-0.0040057617493989284</v>
       </c>
       <c r="B21" s="0">
-        <v>0.0039999999258766294</v>
+        <v>0.0039999999661128882</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.079441115382873129</v>
+        <v>-0.045718708458034385</v>
       </c>
       <c r="B22" s="0">
-        <v>0.07901704761843753</v>
+        <v>0.045503431329488642</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.040507263901339741</v>
+        <v>-0.040503431367008957</v>
       </c>
       <c r="B23" s="0">
-        <v>0.040100396839257257</v>
+        <v>0.040099897617377422</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.020100397150273785</v>
+        <v>-0.020099897741101103</v>
       </c>
       <c r="B24" s="0">
-        <v>0.019999999684614522</v>
+        <v>0.01999999987465273</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.097315937572407307</v>
+        <v>-0.082212501247013847</v>
       </c>
       <c r="B25" s="0">
-        <v>0.097189998961955126</v>
+        <v>0.082124628625175333</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.094689999086691401</v>
+        <v>-0.079624628663125918</v>
       </c>
       <c r="B26" s="0">
-        <v>0.094525994346794207</v>
+        <v>0.079513015195164627</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.092025994478166062</v>
+        <v>-0.077013015235116278</v>
       </c>
       <c r="B27" s="0">
-        <v>0.091043319497558617</v>
+        <v>0.076361370058938949</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.089043319651778141</v>
+        <v>-0.074361370102826285</v>
       </c>
       <c r="B28" s="0">
-        <v>0.088370855977189855</v>
+        <v>0.073923420247743898</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.081370856217775511</v>
+        <v>-0.06692342032513654</v>
       </c>
       <c r="B29" s="0">
-        <v>0.081176734204327694</v>
+        <v>0.066803210094043664</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.021176735147972359</v>
+        <v>-0.0068032104675759264</v>
       </c>
       <c r="B30" s="0">
-        <v>0.021021878614039924</v>
+        <v>0.0067518954809950849</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.014021878872330973</v>
+        <v>-0.014023625424606223</v>
       </c>
       <c r="B31" s="0">
-        <v>0.014000449678771787</v>
+        <v>0.014001137283020881</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.0040004499773633739</v>
+        <v>-0.0040011373809569761</v>
       </c>
       <c r="B32" s="0">
-        <v>0.0039999997795039377</v>
+        <v>0.003999999935198062</v>
       </c>
     </row>
   </sheetData>
